--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1998899.807720064</v>
+        <v>2086824.190543255</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526077</v>
+        <v>11843801.51954497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577127</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6252150.261438343</v>
+        <v>6612626.532169661</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>110.7767121622227</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -674,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.053086656939309</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>104.4901765374788</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -874,10 +876,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>216.9172933214867</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>251.971301918254</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>81.48697791125802</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>118.307130132769</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1120,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>81.74876965437709</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>397.2230513325169</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.17149958996</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>157.707253088754</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1300,7 +1302,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.4540617484185</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1421,16 +1423,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>69.22565591010674</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1531,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>116.3908459067739</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>191.4416113847519</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1607,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1616,7 +1618,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>88.67266824367455</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1673,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1771,19 +1773,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>123.90863447604</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>47.93442136767437</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1831,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2005,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>94.39138474375331</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2056,19 +2058,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>168.1487656894605</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2248,13 +2250,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.100097787573554</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>125.7501903207671</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2302,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2372,7 +2374,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2488,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>125.820827824297</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2533,7 +2535,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>129.6682002458908</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>80.8652235539778</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2719,16 +2721,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -2770,16 +2772,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>70.025302400722</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2953,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,16 +3246,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>57.14703831770799</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486142</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3430,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>168.7961849778487</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,19 +3480,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>201.9491407442906</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3673,7 +3675,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>80.08352029690163</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>115.105571630339</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3746,10 +3748,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3800,10 +3802,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>333.9981979086215</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3898,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3907,7 +3909,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -3916,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>19.53872709080478</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>8.91756787493555</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3986,13 +3988,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4028,13 +4030,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>243.1836967350494</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4043,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>98.15366458399261</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.3026401727913</v>
+        <v>565.1447501682225</v>
       </c>
       <c r="C2" t="n">
-        <v>189.4423142264954</v>
+        <v>138.2440201815226</v>
       </c>
       <c r="D2" t="n">
-        <v>170.1900974518998</v>
+        <v>118.9918034069269</v>
       </c>
       <c r="E2" t="n">
-        <v>58.29442860116974</v>
+        <v>97.05526759518852</v>
       </c>
       <c r="F2" t="n">
-        <v>37.21065083097405</v>
+        <v>75.97148982499283</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>75.67283145484552</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>399.5154512777223</v>
+        <v>401.305594109213</v>
       </c>
       <c r="L2" t="n">
-        <v>399.5154512777223</v>
+        <v>401.305594109213</v>
       </c>
       <c r="M2" t="n">
-        <v>399.5154512777223</v>
+        <v>401.305594109213</v>
       </c>
       <c r="N2" t="n">
-        <v>399.5154512777223</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="O2" t="n">
-        <v>815.1719019525203</v>
+        <v>1000.08236086926</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1479.021285111688</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1351.458990130057</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>993.9695752563068</v>
       </c>
       <c r="W2" t="n">
-        <v>1449.208273341684</v>
+        <v>993.9695752563068</v>
       </c>
       <c r="X2" t="n">
-        <v>1037.488274509431</v>
+        <v>582.2495764240541</v>
       </c>
       <c r="Y2" t="n">
-        <v>632.1510044643213</v>
+        <v>580.9527104193485</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>46.14877825422927</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>493.6978991635576</v>
+        <v>796.7851917762486</v>
       </c>
       <c r="L3" t="n">
-        <v>950.4838058662884</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="M3" t="n">
-        <v>950.4838058662884</v>
+        <v>1754.663040261105</v>
       </c>
       <c r="N3" t="n">
-        <v>950.4838058662884</v>
+        <v>1754.663040261105</v>
       </c>
       <c r="O3" t="n">
-        <v>1407.269712569019</v>
+        <v>1754.663040261105</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1754.663040261105</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305.7743982001963</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="C4" t="n">
-        <v>200.228765334056</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>36.91199246082674</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>36.91199246082674</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>36.91199246082674</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>36.91199246082674</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>263.4395936666639</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>618.1289149610848</v>
+        <v>393.4019879271588</v>
       </c>
       <c r="M4" t="n">
-        <v>1009.314709931336</v>
+        <v>784.5877828974096</v>
       </c>
       <c r="N4" t="n">
-        <v>1386.806220807371</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1742.234349487134</v>
+        <v>1517.507422453209</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1691.767416841772</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.902165973849</v>
+        <v>1411.582968342076</v>
       </c>
       <c r="V4" t="n">
-        <v>823.1906985818782</v>
+        <v>1411.582968342076</v>
       </c>
       <c r="W4" t="n">
-        <v>548.3382947543912</v>
+        <v>1192.474591249665</v>
       </c>
       <c r="X4" t="n">
-        <v>305.7743982001963</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="Y4" t="n">
-        <v>305.7743982001963</v>
+        <v>949.9106946954703</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1334.464719255012</v>
+        <v>716.9127977186621</v>
       </c>
       <c r="C5" t="n">
-        <v>1311.604393308716</v>
+        <v>694.0524717723663</v>
       </c>
       <c r="D5" t="n">
-        <v>888.3117724937163</v>
+        <v>674.8002549977706</v>
       </c>
       <c r="E5" t="n">
-        <v>462.3348326415738</v>
+        <v>652.8637191860322</v>
       </c>
       <c r="F5" t="n">
-        <v>37.21065083097405</v>
+        <v>631.7799414158364</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>399.5154512777223</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>856.3013579804531</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O5" t="n">
-        <v>856.3013579804531</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1763.289544343096</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1763.289544343096</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1763.289544343096</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>1763.289544343096</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W5" t="n">
-        <v>1763.289544343096</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="X5" t="n">
-        <v>1755.609949551248</v>
+        <v>734.0176239744937</v>
       </c>
       <c r="Y5" t="n">
-        <v>1754.313083546542</v>
+        <v>732.7207579697881</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023297</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>316.0561247023297</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>316.0561247023297</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>316.0561247023297</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>475.2419029331439</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>932.0278096358747</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1388.813716338606</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>203.1689621665946</v>
+        <v>789.560603642277</v>
       </c>
       <c r="C7" t="n">
-        <v>203.1689621665946</v>
+        <v>617.588040521193</v>
       </c>
       <c r="D7" t="n">
-        <v>203.1689621665946</v>
+        <v>454.2712676479637</v>
       </c>
       <c r="E7" t="n">
-        <v>203.1689621665946</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F7" t="n">
-        <v>203.1689621665946</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1798.56100972851</v>
+        <v>2058.370487500288</v>
       </c>
       <c r="T7" t="n">
-        <v>1555.22166195441</v>
+        <v>1815.031139726188</v>
       </c>
       <c r="U7" t="n">
-        <v>1275.037213454714</v>
+        <v>1815.031139726188</v>
       </c>
       <c r="V7" t="n">
-        <v>993.3257460627433</v>
+        <v>1533.319672334217</v>
       </c>
       <c r="W7" t="n">
-        <v>718.4733422352563</v>
+        <v>1258.46726850673</v>
       </c>
       <c r="X7" t="n">
-        <v>475.9094456810614</v>
+        <v>1015.903371952535</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.3349308786603</v>
+        <v>789.560603642277</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>908.3670997859888</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C8" t="n">
-        <v>885.506773839693</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D8" t="n">
-        <v>484.2713684533122</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
-        <v>462.3348326415738</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
-        <v>441.2510548713781</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L8" t="n">
-        <v>856.3013579804531</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M8" t="n">
-        <v>856.3013579804531</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N8" t="n">
-        <v>1313.087264683184</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>1769.873171385915</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>1769.873171385915</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.232328914477</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="W8" t="n">
-        <v>1741.232328914477</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="X8" t="n">
-        <v>1329.512330082224</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y8" t="n">
-        <v>924.1750600371148</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023296</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>316.0561247023296</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>316.0561247023296</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="M9" t="n">
-        <v>316.0561247023296</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N9" t="n">
-        <v>393.2225928484409</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O9" t="n">
-        <v>850.0084995511718</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253903</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>804.4350722677784</v>
+        <v>871.4422033460369</v>
       </c>
       <c r="C10" t="n">
-        <v>632.4625091466944</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D10" t="n">
-        <v>469.1457362734651</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E10" t="n">
-        <v>302.9375304263186</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F10" t="n">
-        <v>302.9375304263186</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G10" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>36.91199246082674</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>391.6013137552475</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>782.7871087254983</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1160.278619601534</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1515.706748281297</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1806.305960203198</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1628.425962247645</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1628.425962247645</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1346.714494855674</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.714494855674</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X10" t="n">
-        <v>1104.150598301479</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="Y10" t="n">
-        <v>994.6010409798441</v>
+        <v>871.4422033460369</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2213.014655894522</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>1786.113925907822</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
-        <v>1362.821305092822</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>936.8443652406795</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>511.7201834300797</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G11" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>2047.588607372513</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M11" t="n">
-        <v>2944.581198189633</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N11" t="n">
-        <v>3506.656153268074</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3506.656153268074</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3506.656153268074</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3519.845194023118</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3519.845194023118</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3519.845194023118</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3449.920289063414</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3038.200290231161</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2632.863020186051</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>328.1753552221053</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>1164.974163305011</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>1164.974163305011</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N12" t="n">
-        <v>1164.974163305011</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O12" t="n">
-        <v>1164.974163305011</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P12" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>866.3502736793807</v>
+        <v>703.5688235070123</v>
       </c>
       <c r="C13" t="n">
-        <v>694.3777105582967</v>
+        <v>531.5962603859283</v>
       </c>
       <c r="D13" t="n">
-        <v>576.8111995413534</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E13" t="n">
-        <v>410.6029936942069</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F13" t="n">
-        <v>238.7412194687674</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G13" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2082.762229695263</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1839.422881921163</v>
+        <v>1919.205328302989</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.422881921163</v>
+        <v>1919.205328302989</v>
       </c>
       <c r="V13" t="n">
-        <v>1557.711414529191</v>
+        <v>1637.493860911018</v>
       </c>
       <c r="W13" t="n">
-        <v>1282.859010701704</v>
+        <v>1362.641457083531</v>
       </c>
       <c r="X13" t="n">
-        <v>1282.859010701704</v>
+        <v>1120.077560529336</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.516242391446</v>
+        <v>893.7347922190779</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2085.758852609887</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>1658.858122623187</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1235.565501808187</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>809.5885619560449</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>2047.588607372513</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2944.581198189632</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3050.570673763891</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O14" t="n">
-        <v>3050.570673763891</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P14" t="n">
-        <v>3050.570673763891</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268074</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3403.28691719461</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3403.28691719461</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3313.718565433323</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2917.32721573367</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2505.607216901417</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2505.607216901417</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>72.48424976299954</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M15" t="n">
-        <v>445.5258153845552</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N15" t="n">
-        <v>445.5258153845552</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>1335.007093396027</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1335.007093396027</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2408.575983354001</v>
+        <v>796.0638950398506</v>
       </c>
       <c r="C16" t="n">
-        <v>2236.603420232917</v>
+        <v>624.0913319187666</v>
       </c>
       <c r="D16" t="n">
-        <v>2073.286647359687</v>
+        <v>460.7745590455373</v>
       </c>
       <c r="E16" t="n">
-        <v>1907.078441512541</v>
+        <v>460.7745590455373</v>
       </c>
       <c r="F16" t="n">
-        <v>1735.216667287101</v>
+        <v>460.7745590455373</v>
       </c>
       <c r="G16" t="n">
-        <v>1568.959697581333</v>
+        <v>294.5175893397695</v>
       </c>
       <c r="H16" t="n">
-        <v>1443.799460736848</v>
+        <v>150.7213208479239</v>
       </c>
       <c r="I16" t="n">
-        <v>1443.799460736848</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>1501.290788961006</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>1727.818390166844</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>2082.507711461265</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>2473.693506431515</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>2851.185017307551</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>3206.613145987314</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>3497.212357909215</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>3624.212488149977</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>3624.212488149977</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>3624.212488149977</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>3624.212488149977</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U16" t="n">
-        <v>3624.212488149977</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V16" t="n">
-        <v>3342.501020758006</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W16" t="n">
-        <v>3067.648616930519</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X16" t="n">
-        <v>2825.084720376324</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y16" t="n">
-        <v>2598.741952066066</v>
+        <v>986.2298637519162</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5600,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.1370507523521</v>
+        <v>1114.620463157417</v>
       </c>
       <c r="C19" t="n">
-        <v>274.1644876312681</v>
+        <v>942.6479000363333</v>
       </c>
       <c r="D19" t="n">
-        <v>274.1644876312681</v>
+        <v>779.331127163104</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V19" t="n">
-        <v>1307.345429672325</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.493025844838</v>
+        <v>1547.350328423678</v>
       </c>
       <c r="X19" t="n">
-        <v>862.6457877746757</v>
+        <v>1304.786431869483</v>
       </c>
       <c r="Y19" t="n">
-        <v>636.3030194644177</v>
+        <v>1304.786431869483</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,10 +5740,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,28 +5752,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>195.4640539534684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>195.4640539534684</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5780,7 +5782,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5838,7 +5840,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>841.6494985835419</v>
+        <v>875.4305977324519</v>
       </c>
       <c r="C22" t="n">
-        <v>841.6494985835419</v>
+        <v>703.4580346113679</v>
       </c>
       <c r="D22" t="n">
-        <v>678.3327257103126</v>
+        <v>540.1412617381386</v>
       </c>
       <c r="E22" t="n">
-        <v>512.1245198631661</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
         <v>202.0712816655526</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2280.594429922418</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2110.459382441553</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1867.120034667453</v>
+        <v>1938.521685761864</v>
       </c>
       <c r="U22" t="n">
-        <v>1867.120034667453</v>
+        <v>1658.337237262168</v>
       </c>
       <c r="V22" t="n">
-        <v>1585.408567275482</v>
+        <v>1376.625769870197</v>
       </c>
       <c r="W22" t="n">
-        <v>1310.556163447995</v>
+        <v>1101.77336604271</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.9922668938</v>
+        <v>1101.77336604271</v>
       </c>
       <c r="Y22" t="n">
-        <v>841.6494985835419</v>
+        <v>875.4305977324519</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,40 +5977,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6063,28 +6065,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M24" t="n">
-        <v>692.7876399741681</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>606.6296631841825</v>
+        <v>3535.877964083838</v>
       </c>
       <c r="C25" t="n">
-        <v>606.6296631841825</v>
+        <v>3535.877964083838</v>
       </c>
       <c r="D25" t="n">
-        <v>606.6296631841825</v>
+        <v>3372.561191210609</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>3206.352985363462</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2155.623995541889</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T25" t="n">
-        <v>1912.284647767789</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U25" t="n">
-        <v>1632.100199268094</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V25" t="n">
-        <v>1350.388731876122</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="W25" t="n">
-        <v>1075.536328048635</v>
+        <v>4099.585809396453</v>
       </c>
       <c r="X25" t="n">
-        <v>832.9724314944405</v>
+        <v>3857.021912842258</v>
       </c>
       <c r="Y25" t="n">
-        <v>606.6296631841825</v>
+        <v>3726.043932795903</v>
       </c>
     </row>
     <row r="26">
@@ -6242,10 +6244,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6309,16 +6311,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>537.3606176598659</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C28" t="n">
-        <v>365.3880545387819</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D28" t="n">
-        <v>202.0712816655526</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E28" t="n">
-        <v>202.0712816655526</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F28" t="n">
-        <v>202.0712816655526</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V28" t="n">
-        <v>1471.285655063871</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="W28" t="n">
-        <v>1196.433251236384</v>
+        <v>4099.585809396453</v>
       </c>
       <c r="X28" t="n">
-        <v>953.8693546821894</v>
+        <v>4099.585809396453</v>
       </c>
       <c r="Y28" t="n">
-        <v>727.5265863719314</v>
+        <v>4099.585809396453</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>3950.770911629316</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6537,25 +6539,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>964.4851292537592</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L30" t="n">
-        <v>964.4851292537592</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M30" t="n">
-        <v>1910.990343986338</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446.1370507523521</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="C31" t="n">
-        <v>274.1644876312681</v>
+        <v>2986.82914530688</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.958004048024</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.773555548329</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.062088156358</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.20968432887</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6457877746757</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.3030194644177</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6780,25 +6782,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N33" t="n">
-        <v>1828.971033901635</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3851.695559555389</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="C34" t="n">
-        <v>3679.722996434305</v>
+        <v>2986.82914530688</v>
       </c>
       <c r="D34" t="n">
-        <v>3516.406223561076</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E34" t="n">
-        <v>3516.406223561076</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.544449335636</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629868</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I34" t="n">
         <v>2934.722642878299</v>
@@ -6892,16 +6894,16 @@
         <v>4374.43821322394</v>
       </c>
       <c r="V34" t="n">
-        <v>4316.713932094942</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W34" t="n">
-        <v>4041.861528267455</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X34" t="n">
-        <v>4041.861528267455</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y34" t="n">
-        <v>4041.861528267455</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,10 +6925,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6935,7 +6937,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
@@ -6944,43 +6946,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C36" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259876</v>
       </c>
       <c r="D36" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775161</v>
       </c>
       <c r="E36" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048099</v>
       </c>
       <c r="F36" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731003</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948607</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710917</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710917</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>3578.145528990508</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>3578.145528990508</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>3578.145528990508</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>3578.145528990508</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>4568.970883343944</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>4568.970883343944</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>4568.970883343944</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>5033.116360206723</v>
       </c>
       <c r="R36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S36" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.81142285268</v>
       </c>
       <c r="T36" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150358</v>
       </c>
       <c r="U36" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069995</v>
       </c>
       <c r="V36" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209262</v>
       </c>
       <c r="W36" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042479</v>
       </c>
       <c r="X36" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809142</v>
       </c>
       <c r="Y36" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162434</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>436.1206832263797</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>272.8039103531504</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>272.8039103531504</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7126,19 +7128,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1618.213701196326</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1618.213701196326</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W37" t="n">
-        <v>1618.213701196326</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X37" t="n">
-        <v>1375.649804642131</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,46 +7174,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991801</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478502</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>3950.770911629314</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787242</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T38" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
@@ -7242,7 +7244,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
@@ -7257,16 +7259,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>939.1015214887346</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M39" t="n">
-        <v>939.1015214887346</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1019.226866224298</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>847.2543031032135</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>683.9375302299842</v>
+        <v>850.194499935752</v>
       </c>
       <c r="E40" t="n">
-        <v>517.7293243828377</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="F40" t="n">
-        <v>345.8675501573982</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2201.823296074612</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T40" t="n">
-        <v>1958.483948300512</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U40" t="n">
-        <v>1678.299499800816</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V40" t="n">
-        <v>1678.299499800816</v>
+        <v>2119.40887333407</v>
       </c>
       <c r="W40" t="n">
-        <v>1678.299499800816</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>1435.735603246621</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1209.392834936363</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1624.885041501216</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>1197.984311514516</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>774.6916906995161</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>774.6916906995161</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F41" t="n">
-        <v>774.6916906995161</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>72.48424976299951</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>72.48424976299951</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>787.9925577384986</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1684.985148555618</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2581.977739372736</v>
+        <v>3105.626261478502</v>
       </c>
       <c r="N41" t="n">
-        <v>3478.970330189855</v>
+        <v>3105.626261478502</v>
       </c>
       <c r="O41" t="n">
-        <v>3506.656153268073</v>
+        <v>3950.770911629314</v>
       </c>
       <c r="P41" t="n">
-        <v>3506.656153268073</v>
+        <v>4659.050190787242</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268073</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T41" t="n">
-        <v>3403.286917194609</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>3144.932007791022</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V41" t="n">
-        <v>2787.442592917271</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W41" t="n">
-        <v>2450.070675837856</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X41" t="n">
-        <v>2450.070675837856</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2044.733405792746</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>662.9691763313391</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>662.9691763313391</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M42" t="n">
-        <v>662.9691763313391</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
-        <v>662.9691763313391</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>1552.450454342811</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.8310349407127</v>
+        <v>1105.451355640851</v>
       </c>
       <c r="C43" t="n">
-        <v>811.8310349407127</v>
+        <v>933.4787925197672</v>
       </c>
       <c r="D43" t="n">
-        <v>648.5142620674834</v>
+        <v>770.1620196465379</v>
       </c>
       <c r="E43" t="n">
-        <v>482.306056220337</v>
+        <v>603.9538137993915</v>
       </c>
       <c r="F43" t="n">
-        <v>482.306056220337</v>
+        <v>432.0920395739519</v>
       </c>
       <c r="G43" t="n">
-        <v>316.0490865145691</v>
+        <v>265.835069868184</v>
       </c>
       <c r="H43" t="n">
-        <v>172.2528180227235</v>
+        <v>122.0388013763384</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2035.723616382436</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>1792.384268608336</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>1512.19982010864</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V43" t="n">
-        <v>1512.19982010864</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="W43" t="n">
-        <v>1237.347416281153</v>
+        <v>1764.52398921737</v>
       </c>
       <c r="X43" t="n">
-        <v>1228.339771963036</v>
+        <v>1521.960092663175</v>
       </c>
       <c r="Y43" t="n">
-        <v>1001.997003652778</v>
+        <v>1295.617324352917</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1787.890474083922</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1360.989744097222</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>937.6971232822222</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>511.7201834300797</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>511.7201834300797</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G44" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.087708579895</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>435.087708579895</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1332.080299397014</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1614.703079337053</v>
+        <v>2129.375202991801</v>
       </c>
       <c r="N44" t="n">
-        <v>1614.703079337053</v>
+        <v>3105.626261478502</v>
       </c>
       <c r="O44" t="n">
-        <v>2459.847729487865</v>
+        <v>3950.770911629314</v>
       </c>
       <c r="P44" t="n">
-        <v>3168.127008645793</v>
+        <v>4659.050190787242</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T44" t="n">
-        <v>3519.845194023116</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>3261.490284619528</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V44" t="n">
-        <v>3015.850186907357</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W44" t="n">
-        <v>2619.458837207704</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X44" t="n">
-        <v>2207.738838375451</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2207.738838375451</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.8603430006899</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>79.93089272491135</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J45" t="n">
-        <v>351.6283820045024</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>351.6283820045024</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L45" t="n">
-        <v>351.6283820045024</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M45" t="n">
-        <v>351.6283820045024</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N45" t="n">
-        <v>1082.954853220308</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O45" t="n">
-        <v>1082.954853220308</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P45" t="n">
-        <v>1799.152570258806</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>343.6019286254902</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C46" t="n">
-        <v>171.6293655044062</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D46" t="n">
-        <v>72.48424976299951</v>
+        <v>850.194499935752</v>
       </c>
       <c r="E46" t="n">
-        <v>72.48424976299951</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="F46" t="n">
-        <v>72.48424976299951</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G46" t="n">
-        <v>72.48424976299951</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H46" t="n">
-        <v>72.48424976299951</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2082.762229695263</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1839.422881921163</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U46" t="n">
-        <v>1559.238433421467</v>
+        <v>2119.40887333407</v>
       </c>
       <c r="V46" t="n">
-        <v>1277.526966029496</v>
+        <v>2119.40887333407</v>
       </c>
       <c r="W46" t="n">
-        <v>1002.674562202009</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X46" t="n">
-        <v>760.1106656478138</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y46" t="n">
-        <v>533.7678973375558</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
   </sheetData>
@@ -7988,19 +7990,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884139</v>
       </c>
       <c r="O2" t="n">
-        <v>457.2459600376383</v>
+        <v>158.4392851313971</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>506.1759249873012</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>506.2917778681974</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662959</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>464.528326530402</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>33.5626095283917</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>93.31363181978827</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8152,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8222,19 +8224,19 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>457.4303624918456</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8301,19 +8303,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>182.1367435982025</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8377,10 +8379,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.1908016072373</v>
+        <v>380.190801607238</v>
       </c>
       <c r="M7" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>112.616039913105</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>260.6609864990197</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>99.28895563385612</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8629,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.31013128815742</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,22 +8695,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701172</v>
+        <v>849.7962292804214</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369261</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>605.0321027116599</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8769,28 +8771,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>280.6730777314199</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>666.9631766140774</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,25 +8932,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701171</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>144.3396991720808</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>488.0298379845275</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,25 +9011,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M15" t="n">
-        <v>399.9064427563237</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9176,16 +9178,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130257</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,22 +9248,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>657.8632399032651</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>123.5223236751217</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9413,7 +9415,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>143.6953511146608</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
@@ -9422,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,10 +9488,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>362.1014486857561</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,31 +9713,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>784.8458565397888</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,19 +9959,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,22 +10120,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>423.228367941047</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>236.8553498857486</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>979.1626539795797</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
@@ -10206,7 +10208,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>399.5054401617502</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,19 +10430,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>698.7993741930985</v>
+        <v>353.3848726586917</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10449,7 +10451,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602116015</v>
+        <v>653.7961895378344</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10664,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10671,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>1022.176719479638</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10683,10 +10685,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>995.9774475394098</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>143.6953511146599</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10844,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,19 +10907,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>227.574314522856</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369257</v>
+        <v>1043.074428213576</v>
       </c>
       <c r="N41" t="n">
-        <v>943.33274487194</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>65.35643721280967</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,19 +11144,19 @@
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>353.812685649979</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11297,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>322.9088183944205</v>
+        <v>56.96224792397903</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11385,7 +11387,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>760.0566355022344</v>
+        <v>291.2228204893258</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11394,7 +11396,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>323.2017802925498</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>45.29275923772313</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>49.46434291160708</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23504,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>265.2418524813385</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>18.44967133088713</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>50.83646120945242</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>70.15473904492167</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>71.98949189919244</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24129,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.46812939212503</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>115.1557639755919</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>42.61286918175945</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>94.4111403812646</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>107.3990854709672</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>208.8690503173294</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>221.7473144003434</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.346971505336512</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>75.4334632704082</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>88.35017670915487</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>163.7887810877123</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25634,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25688,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>58.42923829403509</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>79.232155486322</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.2206897137174</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25874,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>110.7308239899636</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>63.52994056050439</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26073,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>115.7088052046612</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>548627.4544619157</v>
+        <v>550233.8273782907</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>548627.4544619157</v>
+        <v>555434.9104665372</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>548627.4544619157</v>
+        <v>555434.9104665372</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>459510.0981580165</v>
+        <v>577938.6364527188</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>459510.0981580165</v>
+        <v>577938.6364527186</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>577938.6364527188</v>
+        <v>577938.6364527186</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>577938.6364527186</v>
+        <v>577938.6364527188</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>577938.6364527188</v>
+        <v>577938.6364527186</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>577938.6364527186</v>
+        <v>577938.6364527188</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>577938.6364527186</v>
+        <v>577938.6364527188</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>459510.0981580163</v>
+        <v>577938.6364527186</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>459510.0981580163</v>
+        <v>577938.6364527186</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>524198.4012100471</v>
+        <v>524198.4012100472</v>
       </c>
       <c r="C2" t="n">
         <v>524198.401210047</v>
@@ -26320,40 +26322,40 @@
         <v>524198.401210047</v>
       </c>
       <c r="E2" t="n">
-        <v>402200.5562107939</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="F2" t="n">
-        <v>402200.556210794</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="G2" t="n">
-        <v>505827.3628237028</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="H2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="I2" t="n">
+        <v>505827.3628237026</v>
+      </c>
+      <c r="J2" t="n">
         <v>505827.3628237027</v>
-      </c>
-      <c r="J2" t="n">
-        <v>505827.3628237026</v>
       </c>
       <c r="K2" t="n">
         <v>505827.3628237026</v>
       </c>
       <c r="L2" t="n">
-        <v>505827.3628237029</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="M2" t="n">
+        <v>505827.3628237027</v>
+      </c>
+      <c r="N2" t="n">
+        <v>505827.3628237028</v>
+      </c>
+      <c r="O2" t="n">
         <v>505827.3628237025</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>505827.3628237027</v>
-      </c>
-      <c r="O2" t="n">
-        <v>402200.5562107938</v>
-      </c>
-      <c r="P2" t="n">
-        <v>402200.5562107938</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361226</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701983</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214761.4484639727</v>
+        <v>211246.6236465253</v>
       </c>
       <c r="C4" t="n">
-        <v>214761.4484639727</v>
+        <v>199866.3919893415</v>
       </c>
       <c r="D4" t="n">
-        <v>214761.4484639727</v>
+        <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
-        <v>80277.85946797879</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="F4" t="n">
-        <v>80277.85946797879</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="G4" t="n">
+        <v>101012.8540458318</v>
+      </c>
+      <c r="H4" t="n">
+        <v>101012.8540458318</v>
+      </c>
+      <c r="I4" t="n">
         <v>101012.8540458319</v>
-      </c>
-      <c r="H4" t="n">
-        <v>101012.8540458319</v>
-      </c>
-      <c r="I4" t="n">
-        <v>101012.8540458318</v>
       </c>
       <c r="J4" t="n">
         <v>101012.8540458319</v>
@@ -26448,16 +26450,16 @@
         <v>101012.8540458319</v>
       </c>
       <c r="M4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="N4" t="n">
         <v>101012.8540458318</v>
       </c>
       <c r="O4" t="n">
-        <v>80277.85946797878</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="P4" t="n">
-        <v>80277.85946797878</v>
+        <v>101012.8540458318</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93130.51785772564</v>
+        <v>87785.85867176959</v>
       </c>
       <c r="C6" t="n">
-        <v>247756.238475846</v>
+        <v>233478.9245096651</v>
       </c>
       <c r="D6" t="n">
-        <v>247756.238475846</v>
+        <v>256885.7581832773</v>
       </c>
       <c r="E6" t="n">
-        <v>134070.9989133336</v>
+        <v>111325.0900328003</v>
       </c>
       <c r="F6" t="n">
-        <v>266834.6669229356</v>
+        <v>327064.4465894409</v>
       </c>
       <c r="G6" t="n">
-        <v>224904.5264951314</v>
+        <v>327064.4465894409</v>
       </c>
       <c r="H6" t="n">
+        <v>327064.4465894411</v>
+      </c>
+      <c r="I6" t="n">
+        <v>327064.4465894411</v>
+      </c>
+      <c r="J6" t="n">
+        <v>200487.1780091525</v>
+      </c>
+      <c r="K6" t="n">
+        <v>308417.8462324213</v>
+      </c>
+      <c r="L6" t="n">
+        <v>327064.4465894412</v>
+      </c>
+      <c r="M6" t="n">
+        <v>147000.5751342736</v>
+      </c>
+      <c r="N6" t="n">
+        <v>327064.4465894414</v>
+      </c>
+      <c r="O6" t="n">
         <v>327064.446589441</v>
       </c>
-      <c r="I6" t="n">
+      <c r="P6" t="n">
         <v>327064.4465894412</v>
-      </c>
-      <c r="J6" t="n">
-        <v>206341.9296466841</v>
-      </c>
-      <c r="K6" t="n">
-        <v>327064.4465894411</v>
-      </c>
-      <c r="L6" t="n">
-        <v>327064.4465894413</v>
-      </c>
-      <c r="M6" t="n">
-        <v>216255.0864803075</v>
-      </c>
-      <c r="N6" t="n">
-        <v>327064.4465894413</v>
-      </c>
-      <c r="O6" t="n">
-        <v>266834.6669229355</v>
-      </c>
-      <c r="P6" t="n">
-        <v>266834.6669229354</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572856</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771601</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353626</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771601</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771601</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353626</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>310.9404582913983</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>292.8366080837662</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>65.76266095239431</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>55.18658646772539</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>148.3243698681919</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>21.83664327433297</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>50.12656687328753</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.3305709727783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>21.83664327433274</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27910,7 +27912,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>7.74302113505297</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>12.5455844011191</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>115.6252788787368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34708,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="O2" t="n">
-        <v>419.8550006816142</v>
+        <v>121.048325775373</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10.8155712394132</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>71.39487192408706</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34872,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34942,19 +34944,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>419.8550006816143</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35021,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>160.7937153846608</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,10 +35099,10 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115368</v>
       </c>
       <c r="M7" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>76.49136530850697</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>238.1458997847901</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>77.94592742031445</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35349,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.69056852337247</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,22 +35415,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374943</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374943</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>567.7524798772139</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>258.2738438980866</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>643.7912868918552</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374942</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>107.0600763376348</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>451.9051633799294</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M15" t="n">
-        <v>376.8096622439957</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35896,16 +35898,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>94.10236418953517</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36133,7 +36135,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>106.3043917586367</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
@@ -36142,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>324.5260868755248</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,22 +36840,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>385.7971050416152</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>200.7306752811506</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>956.0658734672517</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36926,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>377.7345989569216</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>677.4563459795569</v>
+        <v>332.04184444515</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013702</v>
+        <v>616.2208277276031</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>1000.833691266097</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>958.546184639978</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>106.3043917586358</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37564,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374939</v>
+        <v>1005.643165314144</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374939</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>27.96547785678557</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37864,19 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>332.0418444451503</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>285.4775554949886</v>
+        <v>19.53098502454721</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38105,7 +38107,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>738.7136072886927</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2086824.190543255</v>
+        <v>2086127.529338165</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954497</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -661,22 +661,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>402.1775436795046</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>2.053086656939309</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>42.521003084832</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -876,16 +876,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>216.9172933214867</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>411.3166734717966</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -910,13 +910,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>251.971301918254</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1065,16 +1065,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>140.8660044523367</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>118.307130132769</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>92.10911583124233</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.17149958996</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>157.707253088754</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>104.9037564455531</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1356,7 +1356,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>191.4416113847519</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>95.05320471978992</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>47.93442136767437</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>43.70950697100926</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>94.39138474375331</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2058,10 +2058,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>103.8121020651556</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>125.7501903207671</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2478,13 +2478,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2535,7 +2535,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>129.6682002458908</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.8652235539778</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2772,16 +2772,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2955,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486142</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3286,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>168.7961849778487</v>
+        <v>135.9188289179902</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>115.105571630339</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.649880648615</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>19.53872709080478</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U46" t="n">
-        <v>161.6737988100375</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>565.1447501682225</v>
+        <v>1651.967434164608</v>
       </c>
       <c r="C2" t="n">
-        <v>138.2440201815226</v>
+        <v>1629.107108218312</v>
       </c>
       <c r="D2" t="n">
-        <v>118.9918034069269</v>
+        <v>1222.867165107701</v>
       </c>
       <c r="E2" t="n">
-        <v>97.05526759518852</v>
+        <v>1200.930629295963</v>
       </c>
       <c r="F2" t="n">
-        <v>75.97148982499283</v>
+        <v>775.8064474853629</v>
       </c>
       <c r="G2" t="n">
-        <v>75.67283145484552</v>
+        <v>371.4673850748115</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884622</v>
+        <v>73.5990065488463</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J2" t="n">
         <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>401.305594109213</v>
+        <v>859.6725812491147</v>
       </c>
       <c r="L2" t="n">
-        <v>401.305594109213</v>
+        <v>1338.611505491544</v>
       </c>
       <c r="M2" t="n">
-        <v>401.305594109213</v>
+        <v>1338.611505491544</v>
       </c>
       <c r="N2" t="n">
-        <v>880.2445183516411</v>
+        <v>1338.611505491544</v>
       </c>
       <c r="O2" t="n">
-        <v>1000.08236086926</v>
+        <v>1817.550429733973</v>
       </c>
       <c r="P2" t="n">
-        <v>1479.021285111688</v>
+        <v>1817.550429733973</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615871</v>
+        <v>1817.550429733973</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489012</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533645</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130057</v>
+        <v>1676.751855212288</v>
       </c>
       <c r="V2" t="n">
-        <v>993.9695752563068</v>
+        <v>1676.751855212288</v>
       </c>
       <c r="W2" t="n">
-        <v>993.9695752563068</v>
+        <v>1676.751855212288</v>
       </c>
       <c r="X2" t="n">
-        <v>582.2495764240541</v>
+        <v>1669.072260420439</v>
       </c>
       <c r="Y2" t="n">
-        <v>580.9527104193485</v>
+        <v>1667.775394415734</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237727</v>
+        <v>693.5426250668212</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412774</v>
+        <v>576.036721584326</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565624</v>
+        <v>472.196763099611</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294996</v>
+        <v>367.4948293725482</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124038</v>
+        <v>273.8489990554523</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000783</v>
+        <v>179.7952272730564</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231743</v>
+        <v>126.4191340353659</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422927</v>
+        <v>133.8657769972778</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338204</v>
+        <v>405.5632662768688</v>
       </c>
       <c r="K3" t="n">
-        <v>796.7851917762486</v>
+        <v>405.5632662768688</v>
       </c>
       <c r="L3" t="n">
-        <v>1275.724116018677</v>
+        <v>405.5632662768688</v>
       </c>
       <c r="M3" t="n">
-        <v>1754.663040261105</v>
+        <v>405.5632662768688</v>
       </c>
       <c r="N3" t="n">
-        <v>1754.663040261105</v>
+        <v>431.0641291835348</v>
       </c>
       <c r="O3" t="n">
-        <v>1754.663040261105</v>
+        <v>910.003053425964</v>
       </c>
       <c r="P3" t="n">
-        <v>1754.663040261105</v>
+        <v>1388.941977668393</v>
       </c>
       <c r="Q3" t="n">
-        <v>1765.370455788124</v>
+        <v>1853.087454531173</v>
       </c>
       <c r="R3" t="n">
-        <v>1847.389765872827</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S3" t="n">
-        <v>1766.065518434082</v>
+        <v>1853.78251717713</v>
       </c>
       <c r="T3" t="n">
-        <v>1624.18558273176</v>
+        <v>1711.902581474809</v>
       </c>
       <c r="U3" t="n">
-        <v>1439.417386651397</v>
+        <v>1527.134385394445</v>
       </c>
       <c r="V3" t="n">
-        <v>1234.444247790663</v>
+        <v>1322.161246533711</v>
       </c>
       <c r="W3" t="n">
-        <v>1037.92287062388</v>
+        <v>1125.639869366929</v>
       </c>
       <c r="X3" t="n">
-        <v>874.445524390543</v>
+        <v>962.1625231335915</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438354</v>
+        <v>822.4696344868839</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>949.9106946954703</v>
+        <v>253.6252065798985</v>
       </c>
       <c r="C4" t="n">
-        <v>949.9106946954703</v>
+        <v>81.65264345881448</v>
       </c>
       <c r="D4" t="n">
-        <v>786.593921822241</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>38.71266663274213</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271588</v>
+        <v>393.4019879271629</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974096</v>
+        <v>784.5877828974137</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773445</v>
+        <v>1162.07929377345</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453209</v>
+        <v>1517.507422453213</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1808.106634375114</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615871</v>
+        <v>1888.068151303049</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615871</v>
+        <v>1717.933103822184</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841772</v>
+        <v>1474.593756048084</v>
       </c>
       <c r="U4" t="n">
-        <v>1411.582968342076</v>
+        <v>1194.409307548388</v>
       </c>
       <c r="V4" t="n">
-        <v>1411.582968342076</v>
+        <v>912.697840156417</v>
       </c>
       <c r="W4" t="n">
-        <v>1192.474591249665</v>
+        <v>912.697840156417</v>
       </c>
       <c r="X4" t="n">
-        <v>949.9106946954703</v>
+        <v>670.1339436022221</v>
       </c>
       <c r="Y4" t="n">
-        <v>949.9106946954703</v>
+        <v>443.7911752919641</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>716.9127977186621</v>
+        <v>930.1893143332779</v>
       </c>
       <c r="C5" t="n">
-        <v>694.0524717723663</v>
+        <v>503.288584346578</v>
       </c>
       <c r="D5" t="n">
-        <v>674.8002549977706</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>652.8637191860322</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>631.7799414158364</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,22 +4570,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4597,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1542.1289725064</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W5" t="n">
-        <v>1145.737622806746</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="X5" t="n">
-        <v>734.0176239744937</v>
+        <v>1755.374948669918</v>
       </c>
       <c r="Y5" t="n">
-        <v>732.7207579697881</v>
+        <v>1350.037678624808</v>
       </c>
     </row>
     <row r="6">
@@ -4649,10 +4649,10 @@
         <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>323.6423572907505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>323.6423572907505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
         <v>874.3078922751886</v>
@@ -4664,10 +4664,10 @@
         <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>789.560603642277</v>
+        <v>1003.942702994191</v>
       </c>
       <c r="C7" t="n">
-        <v>617.588040521193</v>
+        <v>831.9701398731072</v>
       </c>
       <c r="D7" t="n">
-        <v>454.2712676479637</v>
+        <v>668.6533669998779</v>
       </c>
       <c r="E7" t="n">
-        <v>288.0630618008172</v>
+        <v>502.4451611527314</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>330.5833869272918</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4731,46 +4731,46 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2058.370487500288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1815.031139726188</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1815.031139726188</v>
+        <v>1944.726803962681</v>
       </c>
       <c r="V7" t="n">
-        <v>1533.319672334217</v>
+        <v>1663.01533657071</v>
       </c>
       <c r="W7" t="n">
-        <v>1258.46726850673</v>
+        <v>1663.01533657071</v>
       </c>
       <c r="X7" t="n">
-        <v>1015.903371952535</v>
+        <v>1420.451440016515</v>
       </c>
       <c r="Y7" t="n">
-        <v>789.560603642277</v>
+        <v>1194.108671706257</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>938.0105478030285</v>
+        <v>533.7979646336248</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567327</v>
+        <v>510.937638687329</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>491.6854219127334</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1100.603903091853</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1100.603903091853</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1100.603903091853</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.269438076291</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4840,16 +4840,16 @@
         <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1770.875776931517</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W8" t="n">
-        <v>1770.875776931517</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X8" t="n">
-        <v>1359.155778099264</v>
+        <v>954.9431949298605</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094558</v>
+        <v>549.6059248847508</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>51.94486801115937</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>287.7093087981016</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>838.3748437825398</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>838.3748437825398</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1389.040378766978</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>871.4422033460369</v>
+        <v>379.7875610435608</v>
       </c>
       <c r="C10" t="n">
-        <v>712.1419477008308</v>
+        <v>207.8149979224768</v>
       </c>
       <c r="D10" t="n">
-        <v>548.8251748276015</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E10" t="n">
-        <v>382.616968980455</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2118.947862113333</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>1875.608514339233</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>1595.424065839537</v>
       </c>
       <c r="V10" t="n">
-        <v>1372.637375483782</v>
+        <v>1313.712598447566</v>
       </c>
       <c r="W10" t="n">
-        <v>1097.784971656295</v>
+        <v>1038.860194620079</v>
       </c>
       <c r="X10" t="n">
-        <v>1097.784971656295</v>
+        <v>796.2962980658845</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.4422033460369</v>
+        <v>569.9535297556265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
         <v>1690.508147261616</v>
@@ -5029,49 +5029,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1983.783825177544</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>2988.069926596602</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="O11" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
@@ -5083,7 +5083,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5120,28 +5120,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L12" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M12" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N12" t="n">
-        <v>1191.617659878699</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O12" t="n">
-        <v>1828.971033901635</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P12" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>703.5688235070123</v>
+        <v>778.6022263052664</v>
       </c>
       <c r="C13" t="n">
-        <v>531.5962603859283</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="D13" t="n">
-        <v>368.279487512699</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E13" t="n">
-        <v>202.0712816655526</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F13" t="n">
-        <v>202.0712816655526</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5229,22 +5229,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1919.205328302989</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1919.205328302989</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1637.493860911018</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>1362.641457083531</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X13" t="n">
-        <v>1120.077560529336</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.7347922190779</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
         <v>2113.800768076616</v>
@@ -5278,52 +5278,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L14" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M14" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N14" t="n">
-        <v>3114.325629236558</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O14" t="n">
-        <v>3959.47027938737</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P14" t="n">
-        <v>4667.749558545297</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>855.0038060102931</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>796.0638950398506</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C16" t="n">
-        <v>624.0913319187666</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D16" t="n">
-        <v>460.7745590455373</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>460.7745590455373</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>460.7745590455373</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>294.5175893397695</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>150.7213208479239</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1785.357631525569</v>
+        <v>1825.090328421558</v>
       </c>
       <c r="V16" t="n">
-        <v>1503.646164133598</v>
+        <v>1543.378861029587</v>
       </c>
       <c r="W16" t="n">
-        <v>1228.793760306111</v>
+        <v>1268.5264572021</v>
       </c>
       <c r="X16" t="n">
-        <v>986.2298637519162</v>
+        <v>1025.962560647905</v>
       </c>
       <c r="Y16" t="n">
-        <v>986.2298637519162</v>
+        <v>799.6197923376471</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2184.700581617281</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N17" t="n">
-        <v>3160.951640103982</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1114.620463157417</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>942.6479000363333</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>779.331127163104</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1822.202732251165</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1822.202732251165</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1547.350328423678</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1304.786431869483</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1304.786431869483</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5764,7 +5764,7 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
         <v>3833.214576747414</v>
@@ -5782,7 +5782,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5831,25 +5831,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>875.4305977324519</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>703.4580346113679</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D22" t="n">
-        <v>540.1412617381386</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E22" t="n">
-        <v>373.9330558909921</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F22" t="n">
-        <v>202.0712816655526</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.521685761864</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1658.337237262168</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1376.625769870197</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1101.77336604271</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1101.77336604271</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>875.4305977324519</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5992,25 +5992,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2398.817321261059</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N23" t="n">
-        <v>3375.06837974776</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>4220.213029898572</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>109.7493563677404</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>109.7493563677404</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3535.877964083838</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>3535.877964083838</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3372.561191210609</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>3206.352985363462</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.43821322394</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>4374.43821322394</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>4099.585809396453</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>3857.021912842258</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>3726.043932795903</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6305,28 +6305,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L27" t="n">
-        <v>305.3113489363686</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M27" t="n">
-        <v>305.3113489363686</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N27" t="n">
-        <v>305.3113489363686</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.79262694784</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4017.903765402536</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4374.43821322394</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>4099.585809396453</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>4099.585809396453</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>4099.585809396453</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>4090.576687723259</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4798.855966881186</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>700.2342829360799</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L30" t="n">
-        <v>1537.033091018986</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M30" t="n">
-        <v>1537.033091018986</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N30" t="n">
-        <v>1537.033091018986</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O30" t="n">
-        <v>1537.033091018986</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3158.801708427964</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>2986.82914530688</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>3348.967677140029</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4935.721337874071</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6791,16 +6791,16 @@
         <v>692.7876399741681</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1582.26891798564</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1582.26891798564</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3158.801708427964</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>2986.82914530688</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3348.967677140029</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6940,49 +6940,49 @@
         <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M35" t="n">
-        <v>2110.0395278175</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N35" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O35" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>3756.065627259876</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>3652.225668775161</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>3547.523735048099</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>3453.877904731003</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>3359.824132948607</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>3306.448039710917</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>3306.448039710917</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>3578.145528990508</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>3578.145528990508</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L36" t="n">
-        <v>3578.145528990508</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M36" t="n">
-        <v>3578.145528990508</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N36" t="n">
-        <v>4568.970883343944</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.970883343944</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>4568.970883343944</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>5033.116360206723</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
-        <v>5115.135670291425</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>5033.81142285268</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>4891.931487150358</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>4707.163291069995</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>4502.190152209262</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>4305.668775042479</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>4142.191428809142</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>4002.498540162434</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>608.0932463474637</v>
+        <v>655.1318596602905</v>
       </c>
       <c r="C37" t="n">
-        <v>436.1206832263797</v>
+        <v>483.1592965392065</v>
       </c>
       <c r="D37" t="n">
-        <v>272.8039103531504</v>
+        <v>483.1592965392065</v>
       </c>
       <c r="E37" t="n">
-        <v>272.8039103531504</v>
+        <v>483.1592965392065</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W37" t="n">
-        <v>1267.165879923982</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X37" t="n">
-        <v>1024.601983369787</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y37" t="n">
-        <v>798.2592150595294</v>
+        <v>845.2978283723562</v>
       </c>
     </row>
     <row r="38">
@@ -7180,43 +7180,43 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991801</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478502</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629314</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787242</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7244,37 +7244,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.194499935752</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886055</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631659</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2235.67712750613</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2235.67712750613</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.40887333407</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
         <v>435.0679631883225</v>
@@ -7420,40 +7420,40 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>3105.626261478502</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="N41" t="n">
-        <v>3105.626261478502</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O41" t="n">
-        <v>3950.770911629314</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P41" t="n">
-        <v>4659.050190787242</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
         <v>2960.549862354846</v>
@@ -7481,37 +7481,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1105.451355640851</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>933.4787925197672</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>770.1620196465379</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>603.9538137993915</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>432.0920395739519</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>265.835069868184</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>122.0388013763384</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7596,25 +7596,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>2039.376393044857</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>2039.376393044857</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>1764.52398921737</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>1521.960092663175</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>1295.617324352917</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7657,40 +7657,40 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2129.375202991801</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478502</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629314</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787242</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
         <v>2960.549862354846</v>
@@ -7718,31 +7718,31 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677403</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
         <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
         <v>1364.825557038856</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>850.194499935752</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>683.9862940886055</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>512.1245198631659</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
@@ -7833,25 +7833,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>2119.40887333407</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>2119.40887333407</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>498.7615575017808</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865918</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884139</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>158.4392851313971</v>
+        <v>521.1676505099931</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641992</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,25 +8060,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249873012</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681974</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662959</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>47.1014755940123</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.9485808761912</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587976</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.5626095283917</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.97529217031262</v>
       </c>
       <c r="L4" t="n">
-        <v>93.31363181978827</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8218,25 +8218,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>86.02369229001789</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8297,13 +8297,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8312,13 +8312,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>541.7026457419896</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8379,7 +8379,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.190801607238</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>546.3101998434627</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>300.3028744740158</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>260.6609864990197</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,16 +8695,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>849.7962292804214</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>882.1738474735953</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,19 +8780,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>666.9631766140774</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8935,10 +8935,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>423.2283679410461</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8947,7 +8947,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>488.0298379845275</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9023,13 +9023,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>423.2283679410461</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>716.4444307130257</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,25 +9245,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9412,10 +9412,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>276.0147300838795</v>
       </c>
       <c r="O20" t="n">
-        <v>143.6953511146608</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
@@ -9479,28 +9479,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9640,28 +9640,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>362.1014486857561</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>426.8993572042261</v>
       </c>
       <c r="M24" t="n">
-        <v>742.2139937908412</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9737,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9968,16 +9968,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>427.5561602122188</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10126,16 +10126,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>236.8553498857486</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>509.7471451685728</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10208,10 +10208,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>399.5054401617502</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10360,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314407</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.60750039798609</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>353.3848726586917</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>921.6378271075471</v>
@@ -10448,10 +10448,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>271.9410947697819</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,22 +10588,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>632.4842746885287</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>653.7961895378344</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
@@ -10676,7 +10676,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1022.176719479638</v>
+        <v>1014.65485790195</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10828,16 +10828,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>995.9774475394098</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>882.2851839951734</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>227.574314522856</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10916,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1043.074428213576</v>
+        <v>1043.074428213577</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
@@ -11135,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>408.3532410469382</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11156,13 +11156,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,10 +11305,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>56.96224792397903</v>
+        <v>1043.074428213577</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11378,7 +11378,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11387,13 +11387,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>291.2228204893258</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>49.46434291160708</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>129.0261359073655</v>
       </c>
     </row>
     <row r="14">
@@ -23664,16 +23664,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>50.83646120945242</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>233.6730970436895</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>70.15473904492167</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>66.44073542471752</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>115.1557639755919</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.4111403812646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>107.3990854709672</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>1.346971505336512</v>
+        <v>34.22432756519495</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>163.7887810877123</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>79.232155486322</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U46" t="n">
-        <v>115.7088052046612</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>550233.8273782907</v>
+        <v>550233.8273782908</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>577938.6364527188</v>
+        <v>577938.6364527186</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>577938.6364527188</v>
+        <v>577938.6364527186</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>577938.6364527188</v>
+        <v>577938.6364527186</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>577938.6364527188</v>
+        <v>577938.6364527186</v>
       </c>
     </row>
     <row r="13">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>524198.4012100472</v>
+        <v>524198.4012100469</v>
       </c>
       <c r="C2" t="n">
         <v>524198.401210047</v>
       </c>
       <c r="D2" t="n">
-        <v>524198.401210047</v>
+        <v>524198.4012100471</v>
       </c>
       <c r="E2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="F2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237028</v>
       </c>
       <c r="G2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="H2" t="n">
+        <v>505827.3628237027</v>
+      </c>
+      <c r="I2" t="n">
+        <v>505827.3628237027</v>
+      </c>
+      <c r="J2" t="n">
         <v>505827.3628237026</v>
-      </c>
-      <c r="I2" t="n">
-        <v>505827.3628237026</v>
-      </c>
-      <c r="J2" t="n">
-        <v>505827.3628237027</v>
       </c>
       <c r="K2" t="n">
         <v>505827.3628237026</v>
       </c>
       <c r="L2" t="n">
-        <v>505827.3628237027</v>
+        <v>505827.3628237028</v>
       </c>
       <c r="M2" t="n">
-        <v>505827.3628237027</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="N2" t="n">
         <v>505827.3628237028</v>
       </c>
       <c r="O2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="P2" t="n">
         <v>505827.3628237027</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695915</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361226</v>
+        <v>23406.83367361191</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802891</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701983</v>
+        <v>18646.60035701955</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211246.6236465253</v>
+        <v>211246.6236465251</v>
       </c>
       <c r="C4" t="n">
         <v>199866.3919893415</v>
@@ -26426,10 +26426,10 @@
         <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="F4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="G4" t="n">
         <v>101012.8540458318</v>
@@ -26438,16 +26438,16 @@
         <v>101012.8540458318</v>
       </c>
       <c r="I4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="J4" t="n">
         <v>101012.8540458319</v>
       </c>
       <c r="K4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="L4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="M4" t="n">
         <v>101012.8540458318</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216131</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,13 +26478,13 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87785.85867176959</v>
+        <v>87785.85867176901</v>
       </c>
       <c r="C6" t="n">
-        <v>233478.9245096651</v>
+        <v>233478.9245096654</v>
       </c>
       <c r="D6" t="n">
-        <v>256885.7581832773</v>
+        <v>256885.7581832775</v>
       </c>
       <c r="E6" t="n">
-        <v>111325.0900328003</v>
+        <v>111274.0593706164</v>
       </c>
       <c r="F6" t="n">
-        <v>327064.4465894409</v>
+        <v>327013.415927257</v>
       </c>
       <c r="G6" t="n">
-        <v>327064.4465894409</v>
+        <v>327013.4159272569</v>
       </c>
       <c r="H6" t="n">
-        <v>327064.4465894411</v>
+        <v>327013.4159272569</v>
       </c>
       <c r="I6" t="n">
-        <v>327064.4465894411</v>
+        <v>327013.4159272569</v>
       </c>
       <c r="J6" t="n">
-        <v>200487.1780091525</v>
+        <v>200436.1473469677</v>
       </c>
       <c r="K6" t="n">
-        <v>308417.8462324213</v>
+        <v>308366.8155702372</v>
       </c>
       <c r="L6" t="n">
-        <v>327064.4465894412</v>
+        <v>327013.415927257</v>
       </c>
       <c r="M6" t="n">
-        <v>147000.5751342736</v>
+        <v>146949.5444720892</v>
       </c>
       <c r="N6" t="n">
-        <v>327064.4465894414</v>
+        <v>327013.415927257</v>
       </c>
       <c r="O6" t="n">
-        <v>327064.446589441</v>
+        <v>327013.4159272569</v>
       </c>
       <c r="P6" t="n">
-        <v>327064.4465894412</v>
+        <v>327013.4159272569</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26822,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>16.88215092734509</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>292.8366080837662</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>119.162602059665</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>55.18658646772539</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>7.743021135053084</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>148.3243698681919</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>23.7283955563735</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>50.12656687328753</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
+        <v>329.6080546223787</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>7.74302113505297</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>12.5455844011191</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>63.52994056050343</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>462.9969567069714</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>121.048325775373</v>
+        <v>483.776691153969</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>25.75844738047063</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.8155712394132</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0.01063771760061943</v>
       </c>
       <c r="L4" t="n">
-        <v>71.39487192408706</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34938,25 +34938,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35017,13 +35017,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>519.9318045371609</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35099,7 +35099,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115368</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>510.5455990486533</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>263.0232516395698</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>238.1458997847901</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>811.4841868477985</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>844.8942246391492</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>643.7912868918552</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35655,10 +35655,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416143</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35667,7 +35667,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>451.9051633799294</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416143</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>679.0534713570016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36132,10 +36132,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>238.7351072494335</v>
       </c>
       <c r="O20" t="n">
-        <v>106.3043917586367</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>324.5260868755248</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="M24" t="n">
-        <v>719.1172132785132</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36846,16 +36846,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>200.7306752811506</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>377.7345989569216</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37080,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969947</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.48282579338804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>898.4659373853249</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>249.1940564808034</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>595.2046518540826</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>616.2208277276031</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
@@ -37396,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1000.833691266097</v>
+        <v>993.3118296884085</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>958.546184639978</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>844.8942246391492</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1005.643165314144</v>
+        <v>1005.643165314145</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>19.53098502454721</v>
+        <v>1005.643165314145</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38098,7 +38098,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,13 +38107,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>269.8797922757842</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
